--- a/doc/spook_buttons_2013.xlsx
+++ b/doc/spook_buttons_2013.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>AP #1</t>
   </si>
@@ -98,6 +98,29 @@
     <t>Matt Hayhurst
 15608 NE 107th Ct.
 Redmond, WA 98052</t>
+  </si>
+  <si>
+    <t>#5</t>
+  </si>
+  <si>
+    <t>kenbenobi</t>
+  </si>
+  <si>
+    <t>Scott Korman
+2526 S 90th St
+West Allis,  WI 53227</t>
+  </si>
+  <si>
+    <t>#6</t>
+  </si>
+  <si>
+    <t>Christopher Szostak
+1 Pine Forest Ct
+Cape May Court House, NJ
+08210</t>
+  </si>
+  <si>
+    <t>Kalm (Tabula Rasa)</t>
   </si>
 </sst>
 </file>
@@ -439,15 +462,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="36.140625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -541,6 +564,28 @@
       </c>
       <c r="C10" s="1" t="s">
         <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/doc/spook_buttons_2013.xlsx
+++ b/doc/spook_buttons_2013.xlsx
@@ -11,12 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="33">
   <si>
     <t>AP #1</t>
   </si>
@@ -121,6 +121,17 @@
   </si>
   <si>
     <t>Kalm (Tabula Rasa)</t>
+  </si>
+  <si>
+    <t>DML
+308 A Bartlett St.
+San Francisco, CA 94110</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>yes</t>
   </si>
 </sst>
 </file>
@@ -462,10 +473,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -474,7 +485,7 @@
     <col min="3" max="3" width="36.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C1" t="s">
         <v>9</v>
       </c>
@@ -482,7 +493,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -490,7 +501,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -501,7 +512,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -511,21 +522,30 @@
       <c r="C4" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
       <c r="B5" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -535,16 +555,25 @@
       <c r="C7" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="D7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>16</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="D8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>18</v>
       </c>
@@ -554,8 +583,11 @@
       <c r="C9" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="D9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>19</v>
       </c>
@@ -565,8 +597,11 @@
       <c r="C10" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="D10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>24</v>
       </c>
@@ -576,8 +611,11 @@
       <c r="C11" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="D11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>27</v>
       </c>
@@ -586,6 +624,9 @@
       </c>
       <c r="C12" s="1" t="s">
         <v>28</v>
+      </c>
+      <c r="D12" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/doc/spook_buttons_2013.xlsx
+++ b/doc/spook_buttons_2013.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="42">
   <si>
     <t>AP #1</t>
   </si>
@@ -132,6 +132,39 @@
   </si>
   <si>
     <t>yes</t>
+  </si>
+  <si>
+    <t>Mike Farbo
+516 Mohawk Dr
+Erie, PA 16505</t>
+  </si>
+  <si>
+    <t>Vandar</t>
+  </si>
+  <si>
+    <t>#7</t>
+  </si>
+  <si>
+    <t>#8</t>
+  </si>
+  <si>
+    <t>Darth Madden</t>
+  </si>
+  <si>
+    <t>Craig Mundt
+20805 80th Ave W
+Edmonds, WA 98026</t>
+  </si>
+  <si>
+    <t>#9</t>
+  </si>
+  <si>
+    <t>ricoanothny</t>
+  </si>
+  <si>
+    <t>Rico Dominguez
+2109 1/2 8th Street
+Bremerton WA 98312-3925</t>
   </si>
 </sst>
 </file>
@@ -473,10 +506,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D16" sqref="D15:D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -627,6 +660,39 @@
       </c>
       <c r="D12" t="s">
         <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/doc/spook_buttons_2013.xlsx
+++ b/doc/spook_buttons_2013.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="53">
   <si>
     <t>AP #1</t>
   </si>
@@ -165,14 +165,58 @@
     <t>Rico Dominguez
 2109 1/2 8th Street
 Bremerton WA 98312-3925</t>
+  </si>
+  <si>
+    <t>Josh-A-Tron</t>
+  </si>
+  <si>
+    <t>Josh-A-Tron Original Wolfboy Sketch</t>
+  </si>
+  <si>
+    <t>Josh-A-Tron Original Zombie Sketch</t>
+  </si>
+  <si>
+    <t>Josh-A-Tron Pinhead Signed Print</t>
+  </si>
+  <si>
+    <t>Josh-A-Tron An original Demon Colored Pencil Drawing</t>
+  </si>
+  <si>
+    <t>#10</t>
+  </si>
+  <si>
+    <t>#11</t>
+  </si>
+  <si>
+    <t>#12</t>
+  </si>
+  <si>
+    <t>#13</t>
+  </si>
+  <si>
+    <t>#14</t>
+  </si>
+  <si>
+    <t>Josh Simon
+785 Siesta Key Trail
+Apt. 923
+Deerfield Beach, FL 33441</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -200,11 +244,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -506,16 +551,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D16" sqref="D15:D16"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C26" sqref="C23:C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="36.140625" customWidth="1"/>
+    <col min="5" max="5" width="50.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -693,6 +739,49 @@
       </c>
       <c r="C15" s="1" t="s">
         <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>47</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>48</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>49</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>50</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>51</v>
+      </c>
+      <c r="B20" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/doc/spook_buttons_2013.xlsx
+++ b/doc/spook_buttons_2013.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="55">
   <si>
     <t>AP #1</t>
   </si>
@@ -201,6 +201,14 @@
 785 Siesta Key Trail
 Apt. 923
 Deerfield Beach, FL 33441</t>
+  </si>
+  <si>
+    <t>Mister Ski</t>
+  </si>
+  <si>
+    <t>Mike Morawski
+42 Brown St
+Tewksbury, MA 01876</t>
   </si>
 </sst>
 </file>
@@ -554,7 +562,7 @@
   <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C26" sqref="C23:C26"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -741,9 +749,15 @@
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>47</v>
+      </c>
+      <c r="B16" t="s">
+        <v>53</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>43</v>

--- a/doc/spook_buttons_2013.xlsx
+++ b/doc/spook_buttons_2013.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="61">
   <si>
     <t>AP #1</t>
   </si>
@@ -176,9 +176,6 @@
     <t>Josh-A-Tron Original Zombie Sketch</t>
   </si>
   <si>
-    <t>Josh-A-Tron Pinhead Signed Print</t>
-  </si>
-  <si>
     <t>Josh-A-Tron An original Demon Colored Pencil Drawing</t>
   </si>
   <si>
@@ -209,6 +206,27 @@
     <t>Mike Morawski
 42 Brown St
 Tewksbury, MA 01876</t>
+  </si>
+  <si>
+    <t>Avfin</t>
+  </si>
+  <si>
+    <t>#15</t>
+  </si>
+  <si>
+    <t>#16</t>
+  </si>
+  <si>
+    <t>#17</t>
+  </si>
+  <si>
+    <t>#18</t>
+  </si>
+  <si>
+    <t>#19</t>
+  </si>
+  <si>
+    <t>#20</t>
   </si>
 </sst>
 </file>
@@ -559,10 +577,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -751,13 +769,13 @@
     </row>
     <row r="16" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B16" t="s">
+        <v>52</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>54</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>43</v>
@@ -765,7 +783,10 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>48</v>
+        <v>47</v>
+      </c>
+      <c r="B17" t="s">
+        <v>54</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>44</v>
@@ -773,29 +794,57 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>49</v>
+      </c>
+      <c r="B19" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E19" s="2"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>50</v>
       </c>
-      <c r="E19" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>51</v>
-      </c>
-      <c r="B20" t="s">
-        <v>42</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>52</v>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/doc/spook_buttons_2013.xlsx
+++ b/doc/spook_buttons_2013.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="64">
   <si>
     <t>AP #1</t>
   </si>
@@ -227,6 +227,19 @@
   </si>
   <si>
     <t>#20</t>
+  </si>
+  <si>
+    <t>Punkg42</t>
+  </si>
+  <si>
+    <t>Steve Gouge
+727 East Main Street
+Plainfield, IN  46168</t>
+  </si>
+  <si>
+    <t>Rick Tencza
+10857 Continental
+Taylor, Michigan 48180</t>
   </si>
 </sst>
 </file>
@@ -580,7 +593,7 @@
   <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -781,20 +794,29 @@
         <v>43</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>47</v>
       </c>
       <c r="B17" t="s">
         <v>54</v>
       </c>
+      <c r="C17" s="1" t="s">
+        <v>63</v>
+      </c>
       <c r="E17" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>48</v>
+      </c>
+      <c r="B18" t="s">
+        <v>61</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>45</v>

--- a/doc/spook_buttons_2013.xlsx
+++ b/doc/spook_buttons_2013.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="65">
   <si>
     <t>AP #1</t>
   </si>
@@ -240,6 +240,9 @@
     <t>Rick Tencza
 10857 Continental
 Taylor, Michigan 48180</t>
+  </si>
+  <si>
+    <t>yrd</t>
   </si>
 </sst>
 </file>
@@ -593,7 +596,7 @@
   <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -757,6 +760,9 @@
       <c r="C13" s="1" t="s">
         <v>33</v>
       </c>
+      <c r="D13" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="14" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -768,6 +774,9 @@
       <c r="C14" s="1" t="s">
         <v>38</v>
       </c>
+      <c r="D14" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="15" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -779,6 +788,9 @@
       <c r="C15" s="1" t="s">
         <v>41</v>
       </c>
+      <c r="D15" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="16" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -790,6 +802,9 @@
       <c r="C16" s="1" t="s">
         <v>53</v>
       </c>
+      <c r="D16" t="s">
+        <v>32</v>
+      </c>
       <c r="E16" s="2" t="s">
         <v>43</v>
       </c>
@@ -804,6 +819,9 @@
       <c r="C17" s="1" t="s">
         <v>63</v>
       </c>
+      <c r="D17" t="s">
+        <v>32</v>
+      </c>
       <c r="E17" s="2" t="s">
         <v>44</v>
       </c>
@@ -818,6 +836,9 @@
       <c r="C18" s="1" t="s">
         <v>62</v>
       </c>
+      <c r="D18" t="s">
+        <v>32</v>
+      </c>
       <c r="E18" s="2" t="s">
         <v>45</v>
       </c>
@@ -831,6 +852,9 @@
       </c>
       <c r="C19" s="1" t="s">
         <v>51</v>
+      </c>
+      <c r="D19" t="s">
+        <v>32</v>
       </c>
       <c r="E19" s="2"/>
     </row>

--- a/doc/spook_buttons_2013.xlsx
+++ b/doc/spook_buttons_2013.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="86">
   <si>
     <t>AP #1</t>
   </si>
@@ -243,6 +243,85 @@
   </si>
   <si>
     <t>yrd</t>
+  </si>
+  <si>
+    <t>Christina Tabak
+3401 Texas Topaz Drive
+Austin, TX
+78728</t>
+  </si>
+  <si>
+    <t>BuffyGirl</t>
+  </si>
+  <si>
+    <t>Daryl Weinstein
+11598 Wandering Pines Trail West
+Jacksonville, FL 32258</t>
+  </si>
+  <si>
+    <t>superdoug</t>
+  </si>
+  <si>
+    <t>Lance R. Melnik
+3685 W. Drahner Rd.
+Oxford, MI 48371</t>
+  </si>
+  <si>
+    <t>lance</t>
+  </si>
+  <si>
+    <t>Sean Hammond
+2362 S Zeno St
+Aurora, CO  80013</t>
+  </si>
+  <si>
+    <t>Candace Pollock
+75 Pasha Drive
+Brooks, GA 30205</t>
+  </si>
+  <si>
+    <t>Choopie</t>
+  </si>
+  <si>
+    <t>Dawn Lozner
+6028 King Farm Ln
+Knightdale, NC 27545</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> timelord_science</t>
+  </si>
+  <si>
+    <t>Joni Brace ,2522 Esmond Ave.
+Richmond, Ca 94804!</t>
+  </si>
+  <si>
+    <t>Averagejo</t>
+  </si>
+  <si>
+    <t>NYCC</t>
+  </si>
+  <si>
+    <t>Kamkize</t>
+  </si>
+  <si>
+    <t>BonezGT</t>
+  </si>
+  <si>
+    <t>Harrison Duckett
+4430 Tilly Mill Rd Unit 1209
+Doraville, GA. 30360</t>
+  </si>
+  <si>
+    <t>NYCC (full)</t>
+  </si>
+  <si>
+    <t>fury</t>
+  </si>
+  <si>
+    <t>avfin</t>
+  </si>
+  <si>
+    <t>nycc</t>
   </si>
 </sst>
 </file>
@@ -593,10 +672,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -858,39 +937,135 @@
       </c>
       <c r="E19" s="2"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>66</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>68</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>70</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C23" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>73</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B25" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>60</v>
+      </c>
+      <c r="B26" t="s">
+        <v>77</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>82</v>
+      </c>
+      <c r="B28" t="s">
+        <v>79</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>82</v>
+      </c>
+      <c r="B29" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>78</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>78</v>
+      </c>
+      <c r="B31" t="s">
+        <v>83</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>85</v>
+      </c>
+      <c r="B32" t="s">
+        <v>84</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>85</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
